--- a/all data1.xlsx
+++ b/all data1.xlsx
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/all data1.xlsx
+++ b/all data1.xlsx
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,7 +934,7 @@
         <v>57</v>
       </c>
       <c r="K7" s="3">
-        <v>44846.707792905101</v>
+        <v>44846.707789351851</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
